--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1210,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1257,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1303,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1429,10 +1441,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1476,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1522,28 +1534,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1660,10 +1672,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1707,28 +1719,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1753,28 +1765,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1874,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1921,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1967,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2035,10 +2047,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2082,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2128,28 +2140,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2266,10 +2278,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2313,28 +2325,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2359,28 +2371,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2497,10 +2509,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2544,28 +2556,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2590,28 +2602,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2699,10 +2711,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2746,28 +2758,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2792,28 +2804,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2959,10 +2971,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3006,28 +3018,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3052,28 +3064,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3161,10 +3173,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3208,28 +3220,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3254,28 +3266,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3363,10 +3375,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3410,28 +3422,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3456,28 +3468,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3565,10 +3577,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3612,28 +3624,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3658,28 +3670,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3796,10 +3808,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3843,28 +3855,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3889,28 +3901,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3998,10 +4010,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4045,28 +4057,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4091,28 +4103,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4200,10 +4212,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4247,28 +4259,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4293,28 +4305,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4489,10 +4501,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4536,28 +4548,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4582,28 +4594,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4691,10 +4703,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4738,28 +4750,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4784,28 +4796,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4922,10 +4934,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4969,28 +4981,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5015,28 +5027,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5124,10 +5136,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5171,28 +5183,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5217,28 +5229,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5297,10 +5309,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5344,28 +5356,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5390,28 +5402,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5499,10 +5511,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5546,28 +5558,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5592,28 +5604,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5701,10 +5713,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5748,28 +5760,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5794,28 +5806,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5903,10 +5915,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5950,28 +5962,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5996,28 +6008,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6105,10 +6117,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6152,28 +6164,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6198,28 +6210,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6278,10 +6290,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6325,28 +6337,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6371,28 +6383,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6480,10 +6492,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6527,28 +6539,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6573,28 +6585,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6653,10 +6665,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6700,28 +6712,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6746,28 +6758,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6855,10 +6867,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6902,28 +6914,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6948,28 +6960,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7057,10 +7069,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7104,28 +7116,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7150,28 +7162,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7259,10 +7271,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7306,28 +7318,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7352,28 +7364,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7432,10 +7444,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7479,28 +7491,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7525,28 +7537,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7605,10 +7617,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7652,28 +7664,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7698,28 +7710,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7778,10 +7790,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7825,28 +7837,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7871,28 +7883,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7951,10 +7963,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -7998,28 +8010,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8044,28 +8056,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8124,10 +8136,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8171,28 +8183,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8217,28 +8229,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8326,10 +8338,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8373,28 +8385,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8419,28 +8431,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8528,10 +8540,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8575,28 +8587,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8621,28 +8633,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8701,10 +8713,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8748,28 +8760,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8794,28 +8806,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8874,10 +8886,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8921,28 +8933,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8967,28 +8979,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9076,10 +9088,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9123,28 +9135,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9169,28 +9181,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9249,10 +9261,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9296,28 +9308,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9342,28 +9354,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9422,10 +9434,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9469,28 +9481,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9515,28 +9527,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9595,10 +9607,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="2" t="s">
+      <c r="J328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9642,28 +9654,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
+      <c r="A330" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="2">
+      <c r="C330" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9688,28 +9700,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="2">
+      <c r="C332" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="2">
+      <c r="D332" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="2">
+      <c r="I332" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9768,10 +9780,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9815,28 +9827,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9861,28 +9873,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9941,10 +9953,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9988,28 +10000,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10034,28 +10046,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10114,10 +10126,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10161,28 +10173,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
+      <c r="A348" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="2">
+      <c r="C348" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10207,28 +10219,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="2">
+      <c r="C350" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="2">
+      <c r="D350" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="2">
+      <c r="I350" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10316,10 +10328,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10363,28 +10375,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10409,28 +10421,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10489,10 +10501,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10536,28 +10548,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10582,28 +10594,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10662,10 +10674,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10709,28 +10721,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10755,28 +10767,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10835,10 +10847,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
